--- a/perf.xlsx
+++ b/perf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="10920" windowHeight="7680"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="10920" windowHeight="7680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="linear_traversal" sheetId="18" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>poly_collection</t>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>shuffled list</t>
+  </si>
+  <si>
+    <t>near</t>
   </si>
 </sst>
 </file>
@@ -1748,11 +1748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100341632"/>
-        <c:axId val="100364288"/>
+        <c:axId val="100145024"/>
+        <c:axId val="100167680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100341632"/>
+        <c:axId val="100145024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1786,13 +1786,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100364288"/>
+        <c:crossAx val="100167680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100364288"/>
+        <c:axId val="100167680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100341632"/>
+        <c:crossAx val="100145024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2969,11 +2969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102236928"/>
-        <c:axId val="102238848"/>
+        <c:axId val="100401920"/>
+        <c:axId val="100403840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102236928"/>
+        <c:axId val="100401920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3006,13 +3006,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102238848"/>
+        <c:crossAx val="100403840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102238848"/>
+        <c:axId val="100403840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -3042,7 +3042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102236928"/>
+        <c:crossAx val="100401920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4173,11 +4173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102285312"/>
-        <c:axId val="102287232"/>
+        <c:axId val="101007360"/>
+        <c:axId val="101009280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102285312"/>
+        <c:axId val="101007360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4204,20 +4204,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102287232"/>
+        <c:crossAx val="101009280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102287232"/>
+        <c:axId val="101009280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -4242,14 +4241,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102285312"/>
+        <c:crossAx val="101007360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -5397,11 +5395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112401408"/>
-        <c:axId val="112403584"/>
+        <c:axId val="101587968"/>
+        <c:axId val="101590144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112401408"/>
+        <c:axId val="101587968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5428,20 +5426,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112403584"/>
+        <c:crossAx val="101590144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112403584"/>
+        <c:axId val="101590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,14 +5461,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112401408"/>
+        <c:crossAx val="101587968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6618,11 +6614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112079232"/>
-        <c:axId val="112081152"/>
+        <c:axId val="101687680"/>
+        <c:axId val="101689600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112079232"/>
+        <c:axId val="101687680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6649,20 +6645,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112081152"/>
+        <c:crossAx val="101689600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112081152"/>
+        <c:axId val="101689600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6685,14 +6680,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112079232"/>
+        <c:crossAx val="101687680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7839,11 +7833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112131072"/>
-        <c:axId val="112157824"/>
+        <c:axId val="101059584"/>
+        <c:axId val="101086336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112131072"/>
+        <c:axId val="101059584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7870,20 +7864,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112157824"/>
+        <c:crossAx val="101086336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112157824"/>
+        <c:axId val="101086336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7906,14 +7899,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112131072"/>
+        <c:crossAx val="101059584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8013,7 +8005,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>close</c:v>
+                  <c:v>near</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9060,11 +9052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112269568"/>
-        <c:axId val="112279936"/>
+        <c:axId val="102011648"/>
+        <c:axId val="102013568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112269568"/>
+        <c:axId val="102011648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9098,13 +9090,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112279936"/>
+        <c:crossAx val="102013568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112279936"/>
+        <c:axId val="102013568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -9135,7 +9127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112269568"/>
+        <c:crossAx val="102011648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10282,11 +10274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112340352"/>
-        <c:axId val="112363008"/>
+        <c:axId val="102072320"/>
+        <c:axId val="102074240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112340352"/>
+        <c:axId val="102072320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10313,20 +10305,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112363008"/>
+        <c:crossAx val="102074240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112363008"/>
+        <c:axId val="102074240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000019E-3"/>
@@ -10350,14 +10341,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112340352"/>
+        <c:crossAx val="102072320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12028,11 +12018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112389504"/>
-        <c:axId val="116180480"/>
+        <c:axId val="102198656"/>
+        <c:axId val="102319616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112389504"/>
+        <c:axId val="102198656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12059,20 +12049,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116180480"/>
+        <c:crossAx val="102319616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116180480"/>
+        <c:axId val="102319616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12095,14 +12084,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112389504"/>
+        <c:crossAx val="102198656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12780,7 +12768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12789,7 +12777,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12797,13 +12785,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16733,7 +16721,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17641,7 +17629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17650,7 +17638,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17658,10 +17646,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -18567,7 +18555,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -19488,7 +19476,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
